--- a/my-first-git-repo/Database.xlsx
+++ b/my-first-git-repo/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htcht\Desktop\tmp\20250313\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95FE185-1286-437A-A7FC-219BE72855D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAEAD93-D69B-422C-A883-21B2AC40710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22440" yWindow="1560" windowWidth="16290" windowHeight="11295" xr2:uid="{857AAFD6-B046-4E63-A988-03F2B44BEAA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{857AAFD6-B046-4E63-A988-03F2B44BEAA9}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>SN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.htc.edu.hk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,8 +167,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26A9BBF3-1914-44FD-8871-7836B9B682A5}" name="表格1" displayName="表格1" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{26A9BBF3-1914-44FD-8871-7836B9B682A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26A9BBF3-1914-44FD-8871-7836B9B682A5}" name="表格1" displayName="表格1" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{26A9BBF3-1914-44FD-8871-7836B9B682A5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D666BB26-46B2-4674-A31A-B9DF3A27ED97}" name="SN"/>
     <tableColumn id="2" xr3:uid="{0117128D-980D-4294-A0B6-550EE28AEC06}" name="Name"/>
@@ -485,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98611AA-1DFC-40C7-9943-5B0D6DF1068B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -527,15 +539,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{F38341AE-1D85-4E6C-A780-B11CEDF16A86}"/>
     <hyperlink ref="D2" r:id="rId2" location="/media/File:Smiley.svg" xr:uid="{C3E4758B-DBC8-4D39-97E1-90168F676DBE}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{C80BAA86-DF81-48A8-91D6-B0F559AD48C7}"/>
+    <hyperlink ref="D3" r:id="rId4" location="/media/File:Smiley.svg" xr:uid="{341A9017-031F-424A-A3E3-D8A8B706517C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>